--- a/ExsampleData/RStudio IDE version 1.4.1103.xlsx
+++ b/ExsampleData/RStudio IDE version 1.4.1103.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_create_package\KG_Loupedeck_Create_Shortcut\KG_Loupedeck_Create_Shortcut\ExsampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_create_package\KG_Loupedeck\KGLoupedeck\ExsampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4D1EA8-7A12-4EE2-9A34-7ACEC902EECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A8D00C-8DB9-48C3-A2CC-6F7E31542C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="1230" windowWidth="25425" windowHeight="13725" xr2:uid="{B16E5320-8268-4FF9-A0F8-2AD060243020}"/>
+    <workbookView xWindow="-27705" yWindow="1950" windowWidth="25425" windowHeight="13725" xr2:uid="{B16E5320-8268-4FF9-A0F8-2AD060243020}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="570">
   <si>
     <t>Console</t>
     <phoneticPr fontId="1"/>
@@ -826,9 +829,6 @@
   </si>
   <si>
     <t>Delete to Line Start</t>
-  </si>
-  <si>
-    <t>No shortcut </t>
   </si>
   <si>
     <t>Option+Backspace</t>
@@ -1922,10 +1922,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2228,7 +2224,7 @@
   <dimension ref="A1:E208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2244,13 +2240,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -2258,3524 +2254,3532 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>486</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>487</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>483</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>484</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>489</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>490</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>491</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>492</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>481</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>556</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>475</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>476</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>478</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>479</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>561</v>
+      <c r="A9" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>372</v>
       </c>
       <c r="D9" t="s">
-        <v>494</v>
+        <v>373</v>
       </c>
       <c r="E9" t="s">
-        <v>494</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>561</v>
+      <c r="A10" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>384</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>561</v>
+      <c r="A11" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>387</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>561</v>
+      <c r="A12" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>375</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>376</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>561</v>
+      <c r="A13" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>378</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>379</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>561</v>
+      <c r="A14" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>381</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>382</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>285</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>561</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>538</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>289</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>561</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>539</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>285</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>561</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>285</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>561</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>542</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>544</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>285</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>561</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>541</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>543</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>21</v>
+        <v>389</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>398</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>399</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>21</v>
+        <v>389</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>392</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>393</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>21</v>
+        <v>389</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>396</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>397</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>21</v>
+        <v>389</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>394</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>395</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>21</v>
+        <v>389</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>400</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>21</v>
+        <v>389</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>390</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>391</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>240</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>237</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>248</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>249</v>
       </c>
       <c r="E35" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>260</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>552</v>
       </c>
       <c r="E36" t="s">
-        <v>96</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>262</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>552</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>258</v>
       </c>
       <c r="E38" t="s">
-        <v>102</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>282</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>283</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>538</v>
       </c>
       <c r="E40" t="s">
-        <v>108</v>
+        <v>538</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>272</v>
       </c>
       <c r="D41" t="s">
-        <v>556</v>
+        <v>273</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>270</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>271</v>
       </c>
       <c r="E42" t="s">
-        <v>113</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>275</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>276</v>
       </c>
       <c r="E43" t="s">
-        <v>116</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>518</v>
       </c>
       <c r="D44" t="s">
-        <v>118</v>
+        <v>519</v>
       </c>
       <c r="E44" t="s">
-        <v>119</v>
+        <v>520</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>515</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
+        <v>516</v>
       </c>
       <c r="E45" t="s">
-        <v>122</v>
+        <v>517</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>509</v>
       </c>
       <c r="D46" t="s">
-        <v>124</v>
+        <v>510</v>
       </c>
       <c r="E46" t="s">
-        <v>125</v>
+        <v>511</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
+        <v>512</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>513</v>
       </c>
       <c r="E47" t="s">
-        <v>128</v>
+        <v>514</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="D48" t="s">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="E48" t="s">
-        <v>131</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>242</v>
       </c>
       <c r="D49" t="s">
-        <v>555</v>
+        <v>243</v>
       </c>
       <c r="E49" t="s">
-        <v>133</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="E50" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="D51" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>529</v>
       </c>
       <c r="D52" t="s">
-        <v>141</v>
+        <v>530</v>
       </c>
       <c r="E52" t="s">
-        <v>142</v>
+        <v>530</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C53" t="s">
-        <v>143</v>
+        <v>527</v>
       </c>
       <c r="D53" t="s">
-        <v>144</v>
+        <v>528</v>
       </c>
       <c r="E53" t="s">
-        <v>145</v>
+        <v>528</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
+        <v>534</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>535</v>
       </c>
       <c r="E54" t="s">
-        <v>148</v>
+        <v>536</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="D55" t="s">
-        <v>495</v>
+        <v>255</v>
       </c>
       <c r="E55" t="s">
-        <v>495</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
+        <v>251</v>
       </c>
       <c r="D56" t="s">
-        <v>151</v>
+        <v>252</v>
       </c>
       <c r="E56" t="s">
-        <v>151</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>531</v>
       </c>
       <c r="D57" t="s">
-        <v>153</v>
+        <v>532</v>
       </c>
       <c r="E57" t="s">
-        <v>153</v>
+        <v>533</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C58" t="s">
-        <v>154</v>
+        <v>521</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
+        <v>523</v>
       </c>
       <c r="E58" t="s">
-        <v>155</v>
+        <v>524</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>522</v>
       </c>
       <c r="D59" t="s">
-        <v>157</v>
+        <v>525</v>
       </c>
       <c r="E59" t="s">
-        <v>157</v>
+        <v>526</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C60" t="s">
-        <v>158</v>
+        <v>278</v>
       </c>
       <c r="D60" t="s">
-        <v>159</v>
+        <v>279</v>
       </c>
       <c r="E60" t="s">
-        <v>159</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C61" t="s">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="D61" t="s">
-        <v>161</v>
+        <v>281</v>
       </c>
       <c r="E61" t="s">
-        <v>161</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="D62" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="E62" t="s">
-        <v>164</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C63" t="s">
-        <v>165</v>
+        <v>269</v>
       </c>
       <c r="D63" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
       <c r="E63" t="s">
-        <v>167</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C64" t="s">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="D64" t="s">
-        <v>169</v>
+        <v>268</v>
       </c>
       <c r="E64" t="s">
-        <v>170</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>21</v>
+        <v>409</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C65" t="s">
-        <v>171</v>
+        <v>413</v>
       </c>
       <c r="D65" t="s">
-        <v>172</v>
+        <v>414</v>
       </c>
       <c r="E65" t="s">
-        <v>173</v>
+        <v>415</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>21</v>
+        <v>409</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="D66" t="s">
-        <v>175</v>
+        <v>411</v>
       </c>
       <c r="E66" t="s">
-        <v>176</v>
+        <v>412</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>21</v>
+        <v>409</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C67" t="s">
-        <v>177</v>
+        <v>549</v>
       </c>
       <c r="D67" t="s">
-        <v>178</v>
+        <v>551</v>
       </c>
       <c r="E67" t="s">
-        <v>179</v>
+        <v>551</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>21</v>
+        <v>409</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C68" t="s">
-        <v>180</v>
+        <v>548</v>
       </c>
       <c r="D68" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E68" t="s">
-        <v>181</v>
+        <v>550</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>21</v>
+        <v>409</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C69" t="s">
-        <v>182</v>
+        <v>416</v>
       </c>
       <c r="D69" t="s">
-        <v>183</v>
+        <v>417</v>
       </c>
       <c r="E69" t="s">
-        <v>184</v>
+        <v>417</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>21</v>
+        <v>409</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C70" t="s">
-        <v>185</v>
+        <v>418</v>
       </c>
       <c r="D70" t="s">
-        <v>186</v>
+        <v>419</v>
       </c>
       <c r="E70" t="s">
-        <v>187</v>
+        <v>420</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
-        <v>21</v>
+        <v>355</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C71" t="s">
-        <v>188</v>
+        <v>362</v>
       </c>
       <c r="D71" t="s">
-        <v>553</v>
+        <v>206</v>
       </c>
       <c r="E71" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>21</v>
+        <v>355</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C72" t="s">
-        <v>496</v>
+        <v>366</v>
       </c>
       <c r="D72" t="s">
-        <v>497</v>
+        <v>367</v>
       </c>
       <c r="E72" t="s">
-        <v>498</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>21</v>
+        <v>355</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C73" t="s">
-        <v>499</v>
+        <v>363</v>
       </c>
       <c r="D73" t="s">
-        <v>500</v>
+        <v>364</v>
       </c>
       <c r="E73" t="s">
-        <v>501</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>21</v>
+        <v>355</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C74" t="s">
-        <v>502</v>
+        <v>359</v>
       </c>
       <c r="D74" t="s">
-        <v>503</v>
+        <v>360</v>
       </c>
       <c r="E74" t="s">
-        <v>504</v>
+        <v>361</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>21</v>
+        <v>355</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C75" t="s">
-        <v>505</v>
+        <v>369</v>
       </c>
       <c r="D75" t="s">
-        <v>506</v>
+        <v>547</v>
       </c>
       <c r="E75" t="s">
-        <v>507</v>
+        <v>370</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
-        <v>21</v>
+        <v>355</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
+        <v>356</v>
       </c>
       <c r="D76" t="s">
-        <v>191</v>
+        <v>357</v>
       </c>
       <c r="E76" t="s">
-        <v>191</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
-        <v>21</v>
+        <v>440</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C77" t="s">
-        <v>192</v>
+        <v>459</v>
       </c>
       <c r="D77" t="s">
-        <v>193</v>
+        <v>460</v>
       </c>
       <c r="E77" t="s">
-        <v>194</v>
+        <v>461</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
-        <v>21</v>
+        <v>440</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C78" t="s">
-        <v>195</v>
+        <v>447</v>
       </c>
       <c r="D78" t="s">
-        <v>196</v>
+        <v>448</v>
       </c>
       <c r="E78" t="s">
-        <v>197</v>
+        <v>449</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
-        <v>21</v>
+        <v>440</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C79" t="s">
-        <v>198</v>
+        <v>462</v>
       </c>
       <c r="D79" t="s">
-        <v>199</v>
+        <v>463</v>
       </c>
       <c r="E79" t="s">
-        <v>200</v>
+        <v>464</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
-        <v>21</v>
+        <v>440</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C80" t="s">
-        <v>201</v>
+        <v>444</v>
       </c>
       <c r="D80" t="s">
-        <v>202</v>
+        <v>445</v>
       </c>
       <c r="E80" t="s">
-        <v>133</v>
+        <v>446</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
-        <v>21</v>
+        <v>440</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C81" t="s">
-        <v>203</v>
+        <v>441</v>
       </c>
       <c r="D81" t="s">
-        <v>204</v>
+        <v>442</v>
       </c>
       <c r="E81" t="s">
-        <v>136</v>
+        <v>443</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
-        <v>21</v>
+        <v>440</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C82" t="s">
-        <v>205</v>
+        <v>471</v>
       </c>
       <c r="D82" t="s">
-        <v>206</v>
+        <v>472</v>
       </c>
       <c r="E82" t="s">
-        <v>207</v>
+        <v>473</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
-        <v>21</v>
+        <v>440</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C83" t="s">
-        <v>208</v>
+        <v>453</v>
       </c>
       <c r="D83" t="s">
-        <v>508</v>
+        <v>454</v>
       </c>
       <c r="E83" t="s">
-        <v>209</v>
+        <v>455</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
-        <v>21</v>
+        <v>440</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C84" t="s">
-        <v>210</v>
+        <v>465</v>
       </c>
       <c r="D84" t="s">
-        <v>509</v>
+        <v>466</v>
       </c>
       <c r="E84" t="s">
-        <v>211</v>
+        <v>467</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
-        <v>21</v>
+        <v>440</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C85" t="s">
-        <v>212</v>
+        <v>456</v>
       </c>
       <c r="D85" t="s">
-        <v>213</v>
+        <v>457</v>
       </c>
       <c r="E85" t="s">
-        <v>214</v>
+        <v>458</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
-        <v>21</v>
+        <v>440</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C86" t="s">
-        <v>215</v>
+        <v>468</v>
       </c>
       <c r="D86" t="s">
-        <v>216</v>
+        <v>469</v>
       </c>
       <c r="E86" t="s">
-        <v>217</v>
+        <v>470</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
-        <v>21</v>
+        <v>440</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C87" t="s">
-        <v>218</v>
+        <v>450</v>
       </c>
       <c r="D87" t="s">
-        <v>219</v>
+        <v>451</v>
       </c>
       <c r="E87" t="s">
-        <v>220</v>
+        <v>452</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A88" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>561</v>
+      <c r="A88" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="C88" t="s">
-        <v>221</v>
+        <v>406</v>
       </c>
       <c r="D88" t="s">
-        <v>222</v>
+        <v>407</v>
       </c>
       <c r="E88" t="s">
-        <v>222</v>
+        <v>408</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A89" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>561</v>
+      <c r="A89" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="C89" t="s">
-        <v>223</v>
+        <v>403</v>
       </c>
       <c r="D89" t="s">
-        <v>224</v>
+        <v>404</v>
       </c>
       <c r="E89" t="s">
-        <v>225</v>
+        <v>405</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>561</v>
+        <v>421</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="C90" t="s">
-        <v>226</v>
+        <v>422</v>
       </c>
       <c r="D90" t="s">
-        <v>227</v>
+        <v>427</v>
       </c>
       <c r="E90" t="s">
-        <v>228</v>
+        <v>423</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>570</v>
+        <v>421</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="C91" t="s">
-        <v>230</v>
+        <v>424</v>
       </c>
       <c r="D91" t="s">
-        <v>231</v>
+        <v>425</v>
       </c>
       <c r="E91" t="s">
-        <v>232</v>
+        <v>426</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C92" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="D92" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="E92" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C93" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="D93" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="E93" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C94" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="D94" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="E94" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C95" t="s">
-        <v>242</v>
+        <v>49</v>
       </c>
       <c r="D95" t="s">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="E95" t="s">
-        <v>244</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C96" t="s">
-        <v>245</v>
+        <v>46</v>
       </c>
       <c r="D96" t="s">
-        <v>246</v>
+        <v>47</v>
       </c>
       <c r="E96" t="s">
-        <v>247</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C97" t="s">
-        <v>510</v>
+        <v>52</v>
       </c>
       <c r="D97" t="s">
-        <v>511</v>
+        <v>53</v>
       </c>
       <c r="E97" t="s">
-        <v>512</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C98" t="s">
-        <v>513</v>
+        <v>55</v>
       </c>
       <c r="D98" t="s">
-        <v>514</v>
+        <v>56</v>
       </c>
       <c r="E98" t="s">
-        <v>515</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C99" t="s">
-        <v>516</v>
+        <v>177</v>
       </c>
       <c r="D99" t="s">
-        <v>517</v>
+        <v>178</v>
       </c>
       <c r="E99" t="s">
-        <v>518</v>
+        <v>179</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C100" t="s">
-        <v>519</v>
+        <v>62</v>
       </c>
       <c r="D100" t="s">
-        <v>520</v>
+        <v>59</v>
       </c>
       <c r="E100" t="s">
-        <v>521</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C101" t="s">
-        <v>248</v>
+        <v>63</v>
       </c>
       <c r="D101" t="s">
-        <v>249</v>
+        <v>59</v>
       </c>
       <c r="E101" t="s">
-        <v>250</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C102" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="D102" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="E102" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C103" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="D103" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="E103" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C104" t="s">
-        <v>251</v>
+        <v>146</v>
       </c>
       <c r="D104" t="s">
-        <v>252</v>
+        <v>147</v>
       </c>
       <c r="E104" t="s">
-        <v>253</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C105" t="s">
-        <v>254</v>
+        <v>132</v>
       </c>
       <c r="D105" t="s">
-        <v>255</v>
+        <v>554</v>
       </c>
       <c r="E105" t="s">
-        <v>256</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C106" t="s">
-        <v>528</v>
+        <v>192</v>
       </c>
       <c r="D106" t="s">
-        <v>529</v>
+        <v>193</v>
       </c>
       <c r="E106" t="s">
-        <v>529</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C107" t="s">
-        <v>530</v>
+        <v>168</v>
       </c>
       <c r="D107" t="s">
-        <v>531</v>
+        <v>169</v>
       </c>
       <c r="E107" t="s">
-        <v>531</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C108" t="s">
-        <v>532</v>
+        <v>171</v>
       </c>
       <c r="D108" t="s">
-        <v>533</v>
+        <v>172</v>
       </c>
       <c r="E108" t="s">
-        <v>534</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C109" t="s">
-        <v>535</v>
+        <v>205</v>
       </c>
       <c r="D109" t="s">
-        <v>536</v>
+        <v>206</v>
       </c>
       <c r="E109" t="s">
-        <v>537</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C110" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="D110" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="E110" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C111" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="D111" t="s">
-        <v>258</v>
+        <v>507</v>
       </c>
       <c r="E111" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C112" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="D112" t="s">
-        <v>263</v>
+        <v>508</v>
       </c>
       <c r="E112" t="s">
-        <v>264</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C113" t="s">
-        <v>265</v>
+        <v>158</v>
       </c>
       <c r="D113" t="s">
-        <v>539</v>
+        <v>159</v>
       </c>
       <c r="E113" t="s">
-        <v>539</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C114" t="s">
-        <v>266</v>
+        <v>120</v>
       </c>
       <c r="D114" t="s">
-        <v>267</v>
+        <v>121</v>
       </c>
       <c r="E114" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C115" t="s">
-        <v>268</v>
+        <v>114</v>
       </c>
       <c r="D115" t="s">
-        <v>269</v>
+        <v>115</v>
       </c>
       <c r="E115" t="s">
-        <v>269</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C116" t="s">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="D116" t="s">
-        <v>261</v>
+        <v>493</v>
       </c>
       <c r="E116" t="s">
-        <v>261</v>
+        <v>493</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C117" t="s">
-        <v>271</v>
+        <v>126</v>
       </c>
       <c r="D117" t="s">
-        <v>272</v>
+        <v>127</v>
       </c>
       <c r="E117" t="s">
-        <v>272</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C118" t="s">
-        <v>273</v>
+        <v>64</v>
       </c>
       <c r="D118" t="s">
-        <v>274</v>
+        <v>65</v>
       </c>
       <c r="E118" t="s">
-        <v>275</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C119" t="s">
-        <v>276</v>
+        <v>67</v>
       </c>
       <c r="D119" t="s">
-        <v>277</v>
+        <v>68</v>
       </c>
       <c r="E119" t="s">
-        <v>278</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C120" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="D120" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="E120" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C121" t="s">
-        <v>281</v>
+        <v>129</v>
       </c>
       <c r="D121" t="s">
-        <v>282</v>
+        <v>130</v>
       </c>
       <c r="E121" t="s">
-        <v>282</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C122" t="s">
-        <v>283</v>
+        <v>190</v>
       </c>
       <c r="D122" t="s">
-        <v>284</v>
+        <v>191</v>
       </c>
       <c r="E122" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
-        <v>290</v>
+        <v>21</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C123" t="s">
-        <v>287</v>
+        <v>61</v>
       </c>
       <c r="D123" t="s">
-        <v>540</v>
+        <v>59</v>
       </c>
       <c r="E123" t="s">
-        <v>541</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
-        <v>286</v>
+        <v>21</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C124" t="s">
-        <v>542</v>
+        <v>160</v>
       </c>
       <c r="D124" t="s">
-        <v>544</v>
+        <v>161</v>
       </c>
       <c r="E124" t="s">
-        <v>544</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
-        <v>286</v>
+        <v>21</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C125" t="s">
-        <v>543</v>
+        <v>203</v>
       </c>
       <c r="D125" t="s">
-        <v>545</v>
+        <v>204</v>
       </c>
       <c r="E125" t="s">
-        <v>545</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
-        <v>286</v>
+        <v>21</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C126" t="s">
-        <v>288</v>
+        <v>201</v>
       </c>
       <c r="D126" t="s">
-        <v>539</v>
+        <v>202</v>
       </c>
       <c r="E126" t="s">
-        <v>538</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
-        <v>286</v>
+        <v>21</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C127" t="s">
-        <v>289</v>
+        <v>23</v>
       </c>
       <c r="D127" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E127" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C128" t="s">
-        <v>292</v>
+        <v>498</v>
       </c>
       <c r="D128" t="s">
-        <v>24</v>
+        <v>499</v>
       </c>
       <c r="E128" t="s">
-        <v>24</v>
+        <v>500</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C129" t="s">
-        <v>293</v>
+        <v>495</v>
       </c>
       <c r="D129" t="s">
-        <v>294</v>
+        <v>496</v>
       </c>
       <c r="E129" t="s">
-        <v>294</v>
+        <v>497</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C130" t="s">
-        <v>295</v>
+        <v>162</v>
       </c>
       <c r="D130" t="s">
-        <v>296</v>
+        <v>163</v>
       </c>
       <c r="E130" t="s">
-        <v>297</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C131" t="s">
-        <v>298</v>
+        <v>165</v>
       </c>
       <c r="D131" t="s">
-        <v>5</v>
+        <v>166</v>
       </c>
       <c r="E131" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C132" t="s">
-        <v>299</v>
+        <v>34</v>
       </c>
       <c r="D132" t="s">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="E132" t="s">
-        <v>300</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C133" t="s">
-        <v>301</v>
+        <v>31</v>
       </c>
       <c r="D133" t="s">
-        <v>302</v>
+        <v>32</v>
       </c>
       <c r="E133" t="s">
-        <v>302</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C134" t="s">
-        <v>303</v>
+        <v>137</v>
       </c>
       <c r="D134" t="s">
-        <v>304</v>
+        <v>138</v>
       </c>
       <c r="E134" t="s">
-        <v>304</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C135" t="s">
-        <v>305</v>
+        <v>154</v>
       </c>
       <c r="D135" t="s">
-        <v>306</v>
+        <v>155</v>
       </c>
       <c r="E135" t="s">
-        <v>307</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C136" t="s">
-        <v>308</v>
+        <v>156</v>
       </c>
       <c r="D136" t="s">
-        <v>309</v>
+        <v>157</v>
       </c>
       <c r="E136" t="s">
-        <v>309</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C137" t="s">
-        <v>310</v>
+        <v>37</v>
       </c>
       <c r="D137" t="s">
-        <v>311</v>
+        <v>38</v>
       </c>
       <c r="E137" t="s">
-        <v>311</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C138" t="s">
-        <v>312</v>
+        <v>58</v>
       </c>
       <c r="D138" t="s">
-        <v>313</v>
+        <v>59</v>
       </c>
       <c r="E138" t="s">
-        <v>313</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C139" t="s">
-        <v>314</v>
+        <v>140</v>
       </c>
       <c r="D139" t="s">
-        <v>315</v>
+        <v>141</v>
       </c>
       <c r="E139" t="s">
-        <v>315</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C140" t="s">
-        <v>316</v>
+        <v>150</v>
       </c>
       <c r="D140" t="s">
-        <v>317</v>
+        <v>151</v>
       </c>
       <c r="E140" t="s">
-        <v>317</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C141" t="s">
-        <v>318</v>
+        <v>152</v>
       </c>
       <c r="D141" t="s">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="E141" t="s">
-        <v>319</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C142" t="s">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="D142" t="s">
-        <v>321</v>
+        <v>553</v>
       </c>
       <c r="E142" t="s">
-        <v>321</v>
+        <v>181</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C143" t="s">
-        <v>322</v>
+        <v>182</v>
       </c>
       <c r="D143" t="s">
-        <v>323</v>
+        <v>183</v>
       </c>
       <c r="E143" t="s">
-        <v>323</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C144" t="s">
-        <v>324</v>
+        <v>174</v>
       </c>
       <c r="D144" t="s">
-        <v>325</v>
+        <v>175</v>
       </c>
       <c r="E144" t="s">
-        <v>325</v>
+        <v>176</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C145" t="s">
-        <v>326</v>
+        <v>223</v>
       </c>
       <c r="D145" t="s">
-        <v>327</v>
+        <v>224</v>
       </c>
       <c r="E145" t="s">
-        <v>327</v>
+        <v>225</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C146" t="s">
-        <v>328</v>
+        <v>215</v>
       </c>
       <c r="D146" t="s">
-        <v>329</v>
+        <v>216</v>
       </c>
       <c r="E146" t="s">
-        <v>329</v>
+        <v>217</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C147" t="s">
-        <v>330</v>
+        <v>76</v>
       </c>
       <c r="D147" t="s">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="E147" t="s">
-        <v>331</v>
+        <v>78</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C148" t="s">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="D148" t="s">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="E148" t="s">
-        <v>334</v>
+        <v>81</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C149" t="s">
-        <v>335</v>
+        <v>70</v>
       </c>
       <c r="D149" t="s">
-        <v>336</v>
+        <v>71</v>
       </c>
       <c r="E149" t="s">
-        <v>336</v>
+        <v>72</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C150" t="s">
-        <v>337</v>
+        <v>73</v>
       </c>
       <c r="D150" t="s">
-        <v>338</v>
+        <v>74</v>
       </c>
       <c r="E150" t="s">
-        <v>339</v>
+        <v>75</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C151" t="s">
-        <v>340</v>
+        <v>85</v>
       </c>
       <c r="D151" t="s">
-        <v>341</v>
+        <v>86</v>
       </c>
       <c r="E151" t="s">
-        <v>341</v>
+        <v>87</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C152" t="s">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="D152" t="s">
-        <v>343</v>
+        <v>83</v>
       </c>
       <c r="E152" t="s">
-        <v>258</v>
+        <v>84</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C153" t="s">
-        <v>344</v>
+        <v>94</v>
       </c>
       <c r="D153" t="s">
-        <v>345</v>
+        <v>95</v>
       </c>
       <c r="E153" t="s">
-        <v>345</v>
+        <v>96</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C154" t="s">
-        <v>346</v>
+        <v>91</v>
       </c>
       <c r="D154" t="s">
-        <v>347</v>
+        <v>92</v>
       </c>
       <c r="E154" t="s">
-        <v>348</v>
+        <v>93</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C155" t="s">
-        <v>349</v>
+        <v>88</v>
       </c>
       <c r="D155" t="s">
-        <v>350</v>
+        <v>89</v>
       </c>
       <c r="E155" t="s">
-        <v>350</v>
+        <v>90</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C156" t="s">
-        <v>351</v>
+        <v>97</v>
       </c>
       <c r="D156" t="s">
-        <v>352</v>
+        <v>98</v>
       </c>
       <c r="E156" t="s">
-        <v>353</v>
+        <v>99</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C157" t="s">
-        <v>354</v>
+        <v>100</v>
       </c>
       <c r="D157" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="E157" t="s">
-        <v>546</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C158" t="s">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="D158" t="s">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="E158" t="s">
-        <v>547</v>
+        <v>42</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
-        <v>356</v>
+        <v>21</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C159" t="s">
-        <v>357</v>
+        <v>43</v>
       </c>
       <c r="D159" t="s">
-        <v>358</v>
+        <v>44</v>
       </c>
       <c r="E159" t="s">
-        <v>359</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" s="2" t="s">
-        <v>356</v>
+        <v>21</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C160" t="s">
-        <v>360</v>
+        <v>111</v>
       </c>
       <c r="D160" t="s">
-        <v>361</v>
+        <v>112</v>
       </c>
       <c r="E160" t="s">
-        <v>362</v>
+        <v>113</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" s="2" t="s">
-        <v>356</v>
+        <v>21</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C161" t="s">
-        <v>363</v>
+        <v>185</v>
       </c>
       <c r="D161" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="E161" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" s="2" t="s">
-        <v>356</v>
+        <v>21</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C162" t="s">
-        <v>364</v>
+        <v>134</v>
       </c>
       <c r="D162" t="s">
-        <v>365</v>
+        <v>135</v>
       </c>
       <c r="E162" t="s">
-        <v>366</v>
+        <v>136</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
-        <v>356</v>
+        <v>21</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C163" t="s">
-        <v>367</v>
+        <v>103</v>
       </c>
       <c r="D163" t="s">
-        <v>368</v>
+        <v>104</v>
       </c>
       <c r="E163" t="s">
-        <v>369</v>
+        <v>105</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
-        <v>356</v>
+        <v>21</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C164" t="s">
-        <v>370</v>
+        <v>106</v>
       </c>
       <c r="D164" t="s">
-        <v>548</v>
+        <v>107</v>
       </c>
       <c r="E164" t="s">
-        <v>371</v>
+        <v>108</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A165" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>563</v>
+      <c r="A165" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>560</v>
       </c>
       <c r="C165" t="s">
-        <v>373</v>
+        <v>109</v>
       </c>
       <c r="D165" t="s">
-        <v>374</v>
+        <v>555</v>
       </c>
       <c r="E165" t="s">
-        <v>375</v>
+        <v>110</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A166" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>563</v>
+      <c r="A166" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>560</v>
       </c>
       <c r="C166" t="s">
-        <v>376</v>
+        <v>143</v>
       </c>
       <c r="D166" t="s">
-        <v>377</v>
+        <v>144</v>
       </c>
       <c r="E166" t="s">
-        <v>378</v>
+        <v>145</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A167" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>563</v>
+      <c r="A167" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>560</v>
       </c>
       <c r="C167" t="s">
-        <v>379</v>
+        <v>149</v>
       </c>
       <c r="D167" t="s">
-        <v>380</v>
+        <v>494</v>
       </c>
       <c r="E167" t="s">
-        <v>381</v>
+        <v>494</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A168" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>563</v>
+      <c r="A168" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>560</v>
       </c>
       <c r="C168" t="s">
-        <v>382</v>
+        <v>25</v>
       </c>
       <c r="D168" t="s">
-        <v>383</v>
+        <v>26</v>
       </c>
       <c r="E168" t="s">
-        <v>384</v>
+        <v>27</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A169" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>563</v>
+      <c r="A169" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>560</v>
       </c>
       <c r="C169" t="s">
-        <v>385</v>
+        <v>28</v>
       </c>
       <c r="D169" t="s">
-        <v>194</v>
+        <v>29</v>
       </c>
       <c r="E169" t="s">
-        <v>386</v>
+        <v>30</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A170" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>563</v>
+      <c r="A170" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>560</v>
       </c>
       <c r="C170" t="s">
-        <v>387</v>
+        <v>188</v>
       </c>
       <c r="D170" t="s">
-        <v>388</v>
+        <v>552</v>
       </c>
       <c r="E170" t="s">
-        <v>389</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" s="2" t="s">
-        <v>390</v>
+        <v>21</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C171" t="s">
-        <v>391</v>
+        <v>123</v>
       </c>
       <c r="D171" t="s">
-        <v>392</v>
+        <v>124</v>
       </c>
       <c r="E171" t="s">
-        <v>392</v>
+        <v>125</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172" s="2" t="s">
-        <v>390</v>
+        <v>21</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C172" t="s">
-        <v>393</v>
+        <v>117</v>
       </c>
       <c r="D172" t="s">
-        <v>394</v>
+        <v>118</v>
       </c>
       <c r="E172" t="s">
-        <v>394</v>
+        <v>119</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" s="2" t="s">
-        <v>390</v>
+        <v>21</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C173" t="s">
-        <v>395</v>
+        <v>212</v>
       </c>
       <c r="D173" t="s">
-        <v>396</v>
+        <v>213</v>
       </c>
       <c r="E173" t="s">
-        <v>396</v>
+        <v>214</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174" s="2" t="s">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C174" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D174" t="s">
-        <v>398</v>
+        <v>305</v>
       </c>
       <c r="E174" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175" s="2" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C175" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="D175" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="E175" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176" s="2" t="s">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="B176" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C176" t="s">
+        <v>436</v>
+      </c>
+      <c r="D176" t="s">
+        <v>437</v>
+      </c>
+      <c r="E176" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A177" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C177" t="s">
+        <v>433</v>
+      </c>
+      <c r="D177" t="s">
+        <v>434</v>
+      </c>
+      <c r="E177" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A178" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="C176" t="s">
-        <v>401</v>
-      </c>
-      <c r="D176" t="s">
-        <v>402</v>
-      </c>
-      <c r="E176" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A177" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="C177" t="s">
-        <v>404</v>
-      </c>
-      <c r="D177" t="s">
-        <v>405</v>
-      </c>
-      <c r="E177" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A178" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>563</v>
-      </c>
       <c r="C178" t="s">
-        <v>407</v>
+        <v>294</v>
       </c>
       <c r="D178" t="s">
-        <v>408</v>
+        <v>295</v>
       </c>
       <c r="E178" t="s">
-        <v>409</v>
+        <v>296</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179" s="2" t="s">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C179" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="D179" t="s">
-        <v>412</v>
+        <v>258</v>
       </c>
       <c r="E179" t="s">
-        <v>413</v>
+        <v>545</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180" s="2" t="s">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C180" t="s">
-        <v>414</v>
+        <v>297</v>
       </c>
       <c r="D180" t="s">
-        <v>415</v>
+        <v>5</v>
       </c>
       <c r="E180" t="s">
-        <v>416</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181" s="2" t="s">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C181" t="s">
-        <v>549</v>
+        <v>300</v>
       </c>
       <c r="D181" t="s">
-        <v>551</v>
+        <v>301</v>
       </c>
       <c r="E181" t="s">
-        <v>551</v>
+        <v>301</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182" s="2" t="s">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C182" t="s">
-        <v>550</v>
+        <v>291</v>
       </c>
       <c r="D182" t="s">
-        <v>552</v>
+        <v>24</v>
       </c>
       <c r="E182" t="s">
-        <v>552</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183" s="2" t="s">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C183" t="s">
-        <v>417</v>
+        <v>304</v>
       </c>
       <c r="D183" t="s">
-        <v>418</v>
+        <v>305</v>
       </c>
       <c r="E183" t="s">
-        <v>418</v>
+        <v>306</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184" s="2" t="s">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C184" t="s">
-        <v>419</v>
+        <v>354</v>
       </c>
       <c r="D184" t="s">
-        <v>420</v>
+        <v>258</v>
       </c>
       <c r="E184" t="s">
-        <v>421</v>
+        <v>546</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>563</v>
+        <v>290</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>568</v>
       </c>
       <c r="C185" t="s">
-        <v>423</v>
+        <v>336</v>
       </c>
       <c r="D185" t="s">
-        <v>428</v>
+        <v>337</v>
       </c>
       <c r="E185" t="s">
-        <v>424</v>
+        <v>338</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>563</v>
+        <v>290</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>568</v>
       </c>
       <c r="C186" t="s">
-        <v>425</v>
+        <v>341</v>
       </c>
       <c r="D186" t="s">
-        <v>426</v>
+        <v>342</v>
       </c>
       <c r="E186" t="s">
-        <v>427</v>
+        <v>258</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
-        <v>440</v>
+        <v>290</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C187" t="s">
-        <v>430</v>
+        <v>323</v>
       </c>
       <c r="D187" t="s">
-        <v>431</v>
+        <v>324</v>
       </c>
       <c r="E187" t="s">
-        <v>432</v>
+        <v>324</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188" s="2" t="s">
-        <v>429</v>
+        <v>290</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C188" t="s">
-        <v>433</v>
+        <v>311</v>
       </c>
       <c r="D188" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E188" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189" s="2" t="s">
-        <v>429</v>
+        <v>290</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C189" t="s">
-        <v>434</v>
+        <v>345</v>
       </c>
       <c r="D189" t="s">
-        <v>435</v>
+        <v>346</v>
       </c>
       <c r="E189" t="s">
-        <v>436</v>
+        <v>347</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190" s="2" t="s">
-        <v>429</v>
+        <v>290</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C190" t="s">
-        <v>437</v>
+        <v>331</v>
       </c>
       <c r="D190" t="s">
-        <v>438</v>
+        <v>332</v>
       </c>
       <c r="E190" t="s">
-        <v>439</v>
+        <v>333</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191" s="2" t="s">
-        <v>441</v>
+        <v>290</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C191" t="s">
-        <v>442</v>
+        <v>307</v>
       </c>
       <c r="D191" t="s">
-        <v>443</v>
+        <v>308</v>
       </c>
       <c r="E191" t="s">
-        <v>444</v>
+        <v>308</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192" s="2" t="s">
-        <v>441</v>
+        <v>290</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C192" t="s">
-        <v>445</v>
+        <v>319</v>
       </c>
       <c r="D192" t="s">
-        <v>446</v>
+        <v>320</v>
       </c>
       <c r="E192" t="s">
-        <v>447</v>
+        <v>320</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193" s="2" t="s">
-        <v>441</v>
+        <v>290</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C193" t="s">
-        <v>448</v>
+        <v>315</v>
       </c>
       <c r="D193" t="s">
-        <v>449</v>
+        <v>316</v>
       </c>
       <c r="E193" t="s">
-        <v>450</v>
+        <v>316</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194" s="2" t="s">
-        <v>441</v>
+        <v>290</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C194" t="s">
-        <v>451</v>
+        <v>327</v>
       </c>
       <c r="D194" t="s">
-        <v>452</v>
+        <v>328</v>
       </c>
       <c r="E194" t="s">
-        <v>453</v>
+        <v>328</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195" s="2" t="s">
-        <v>441</v>
+        <v>290</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C195" t="s">
-        <v>454</v>
+        <v>350</v>
       </c>
       <c r="D195" t="s">
-        <v>455</v>
+        <v>351</v>
       </c>
       <c r="E195" t="s">
-        <v>456</v>
+        <v>352</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196" s="2" t="s">
-        <v>441</v>
+        <v>290</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C196" t="s">
-        <v>457</v>
+        <v>339</v>
       </c>
       <c r="D196" t="s">
-        <v>458</v>
+        <v>340</v>
       </c>
       <c r="E196" t="s">
-        <v>459</v>
+        <v>340</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A197" s="2" t="s">
-        <v>441</v>
+        <v>290</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C197" t="s">
-        <v>460</v>
+        <v>343</v>
       </c>
       <c r="D197" t="s">
-        <v>461</v>
+        <v>344</v>
       </c>
       <c r="E197" t="s">
-        <v>462</v>
+        <v>344</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198" s="2" t="s">
-        <v>441</v>
+        <v>290</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C198" t="s">
-        <v>463</v>
+        <v>298</v>
       </c>
       <c r="D198" t="s">
-        <v>464</v>
+        <v>299</v>
       </c>
       <c r="E198" t="s">
-        <v>465</v>
+        <v>299</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A199" s="2" t="s">
-        <v>441</v>
+        <v>290</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C199" t="s">
-        <v>466</v>
+        <v>325</v>
       </c>
       <c r="D199" t="s">
-        <v>467</v>
+        <v>326</v>
       </c>
       <c r="E199" t="s">
-        <v>468</v>
+        <v>326</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200" s="2" t="s">
-        <v>441</v>
+        <v>290</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C200" t="s">
-        <v>469</v>
+        <v>313</v>
       </c>
       <c r="D200" t="s">
-        <v>470</v>
+        <v>314</v>
       </c>
       <c r="E200" t="s">
-        <v>471</v>
+        <v>314</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201" s="2" t="s">
-        <v>441</v>
+        <v>290</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C201" t="s">
-        <v>472</v>
+        <v>334</v>
       </c>
       <c r="D201" t="s">
-        <v>473</v>
+        <v>335</v>
       </c>
       <c r="E201" t="s">
-        <v>474</v>
+        <v>335</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A202" s="2" t="s">
-        <v>475</v>
+        <v>290</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C202" t="s">
-        <v>476</v>
+        <v>302</v>
       </c>
       <c r="D202" t="s">
-        <v>477</v>
+        <v>303</v>
       </c>
       <c r="E202" t="s">
-        <v>478</v>
+        <v>303</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A203" s="2" t="s">
-        <v>475</v>
+        <v>290</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C203" t="s">
-        <v>479</v>
+        <v>309</v>
       </c>
       <c r="D203" t="s">
-        <v>480</v>
+        <v>310</v>
       </c>
       <c r="E203" t="s">
-        <v>481</v>
+        <v>310</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A204" s="2" t="s">
-        <v>475</v>
+        <v>290</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C204" t="s">
-        <v>482</v>
+        <v>321</v>
       </c>
       <c r="D204" t="s">
-        <v>557</v>
+        <v>322</v>
       </c>
       <c r="E204" t="s">
-        <v>483</v>
+        <v>322</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A205" s="2" t="s">
-        <v>475</v>
+        <v>290</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C205" t="s">
-        <v>484</v>
+        <v>317</v>
       </c>
       <c r="D205" t="s">
-        <v>485</v>
+        <v>318</v>
       </c>
       <c r="E205" t="s">
-        <v>486</v>
+        <v>318</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A206" s="2" t="s">
-        <v>475</v>
+        <v>290</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C206" t="s">
-        <v>487</v>
+        <v>292</v>
       </c>
       <c r="D206" t="s">
-        <v>488</v>
+        <v>293</v>
       </c>
       <c r="E206" t="s">
-        <v>489</v>
+        <v>293</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A207" s="2" t="s">
-        <v>475</v>
+        <v>290</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C207" t="s">
-        <v>490</v>
+        <v>348</v>
       </c>
       <c r="D207" t="s">
-        <v>491</v>
+        <v>349</v>
       </c>
       <c r="E207" t="s">
-        <v>491</v>
+        <v>349</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A208" s="2" t="s">
-        <v>475</v>
+        <v>290</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C208" t="s">
-        <v>492</v>
+        <v>329</v>
       </c>
       <c r="D208" t="s">
-        <v>493</v>
+        <v>330</v>
       </c>
       <c r="E208" t="s">
-        <v>493</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{8C5FC34B-7ECA-46B5-BE95-29A86B0D6D22}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E208">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E208">
+    <sortCondition ref="C3:C208"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ExsampleData/RStudio IDE version 1.4.1103.xlsx
+++ b/ExsampleData/RStudio IDE version 1.4.1103.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_create_package\KG_Loupedeck\KGLoupedeck\ExsampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A8D00C-8DB9-48C3-A2CC-6F7E31542C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798B8D9B-63C9-46B2-BE49-65710EAFF430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27705" yWindow="1950" windowWidth="25425" windowHeight="13725" xr2:uid="{B16E5320-8268-4FF9-A0F8-2AD060243020}"/>
+    <workbookView xWindow="-26625" yWindow="435" windowWidth="25425" windowHeight="13725" xr2:uid="{B16E5320-8268-4FF9-A0F8-2AD060243020}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="560">
   <si>
     <t>Console</t>
     <phoneticPr fontId="1"/>
@@ -1784,51 +1784,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TextColor(r,g,b)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4,0,1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>68,13,43</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>23,42,19</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4,0,0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>181,56,34</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>37,26,25</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>107,62,29</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>247,249,230</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>211,223,242</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>238,205,225</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>241,228,240</t>
+    <t>FillColor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TextColor</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1869,12 +1829,168 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF76B5E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6B3E1D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4C12E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF040000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5D4E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF172A13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF50BBA5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF040001"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAC7521"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3DFF2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF26572D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1E4F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCDC1DF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAC3823"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF052C17"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEECDE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEF857C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F7E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBEBEBE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7E0D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF140819"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCDFC9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF440D2B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF75C9D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF251A19"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95559E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1891,7 +2007,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1904,8 +2020,83 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1913,6 +2104,20 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEECDE1"/>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FF95559E"/>
+      <color rgb="FF251A19"/>
+      <color rgb="FF75C9D8"/>
+      <color rgb="FF440D2B"/>
+      <color rgb="FFBCDFC9"/>
+      <color rgb="FF140819"/>
+      <color rgb="FFD7E0D7"/>
+      <color rgb="FF040000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2221,3564 +2426,3360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5FC34B-7ECA-46B5-BE95-29A86B0D6D22}">
-  <dimension ref="A1:E208"/>
+  <dimension ref="A1:F208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="20.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="47.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5" customWidth="1"/>
+    <col min="2" max="3" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>557</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="4"/>
+      <c r="D2" t="s">
         <v>486</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>487</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="4"/>
+      <c r="D3" t="s">
         <v>483</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>484</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="4"/>
+      <c r="D4" t="s">
         <v>489</v>
-      </c>
-      <c r="D4" t="s">
-        <v>490</v>
       </c>
       <c r="E4" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="4"/>
+      <c r="D5" t="s">
         <v>491</v>
-      </c>
-      <c r="D5" t="s">
-        <v>492</v>
       </c>
       <c r="E5" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="4"/>
+      <c r="D6" t="s">
         <v>481</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>556</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="4"/>
+      <c r="D7" t="s">
         <v>475</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>476</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="4"/>
+      <c r="D8" t="s">
         <v>478</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>479</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
         <v>372</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>373</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
         <v>384</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>194</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
         <v>386</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>387</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
         <v>375</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>376</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
         <v>378</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>379</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
         <v>381</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>382</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="6"/>
+      <c r="D15" t="s">
         <v>287</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>538</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="6"/>
+      <c r="D16" t="s">
         <v>286</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>539</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="6"/>
+      <c r="D17" t="s">
         <v>288</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="6"/>
+      <c r="D18" t="s">
         <v>542</v>
-      </c>
-      <c r="D18" t="s">
-        <v>544</v>
       </c>
       <c r="E18" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F18" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="6"/>
+      <c r="D19" t="s">
         <v>541</v>
-      </c>
-      <c r="D19" t="s">
-        <v>543</v>
       </c>
       <c r="E19" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F19" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="7"/>
+      <c r="D20" t="s">
         <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
       </c>
       <c r="E20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="7"/>
+      <c r="D21" t="s">
         <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="7"/>
+      <c r="D22" t="s">
         <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="7"/>
+      <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>9</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="7"/>
+      <c r="D24" t="s">
         <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>5</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="7"/>
+      <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>12</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="7"/>
+      <c r="D26" t="s">
         <v>14</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>15</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="8"/>
+      <c r="D27" t="s">
         <v>398</v>
-      </c>
-      <c r="D27" t="s">
-        <v>399</v>
       </c>
       <c r="E27" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F27" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="8"/>
+      <c r="D28" t="s">
         <v>392</v>
-      </c>
-      <c r="D28" t="s">
-        <v>393</v>
       </c>
       <c r="E28" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F28" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="8"/>
+      <c r="D29" t="s">
         <v>396</v>
-      </c>
-      <c r="D29" t="s">
-        <v>397</v>
       </c>
       <c r="E29" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F29" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="8"/>
+      <c r="D30" t="s">
         <v>394</v>
-      </c>
-      <c r="D30" t="s">
-        <v>395</v>
       </c>
       <c r="E30" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F30" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="8"/>
+      <c r="D31" t="s">
         <v>400</v>
-      </c>
-      <c r="D31" t="s">
-        <v>401</v>
       </c>
       <c r="E31" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F31" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="8"/>
+      <c r="D32" t="s">
         <v>390</v>
-      </c>
-      <c r="D32" t="s">
-        <v>391</v>
       </c>
       <c r="E32" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F32" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="9"/>
+      <c r="D33" t="s">
         <v>239</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>240</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="9"/>
+      <c r="D34" t="s">
         <v>236</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>237</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="9"/>
+      <c r="D35" t="s">
         <v>248</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>249</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" s="21"/>
+      <c r="C36" s="9"/>
+      <c r="D36" t="s">
         <v>260</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>552</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="9"/>
+      <c r="D37" t="s">
         <v>262</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>552</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="9"/>
+      <c r="D38" t="s">
         <v>257</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>258</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" s="21"/>
+      <c r="C39" s="9"/>
+      <c r="D39" t="s">
         <v>282</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>283</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" s="21"/>
+      <c r="C40" s="9"/>
+      <c r="D40" t="s">
         <v>264</v>
-      </c>
-      <c r="D40" t="s">
-        <v>538</v>
       </c>
       <c r="E40" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F40" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="9"/>
+      <c r="D41" t="s">
         <v>272</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>273</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" s="21"/>
+      <c r="C42" s="9"/>
+      <c r="D42" t="s">
         <v>270</v>
-      </c>
-      <c r="D42" t="s">
-        <v>271</v>
       </c>
       <c r="E42" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F42" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" s="21"/>
+      <c r="C43" s="9"/>
+      <c r="D43" t="s">
         <v>275</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>276</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" s="21"/>
+      <c r="C44" s="9"/>
+      <c r="D44" t="s">
         <v>518</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>519</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B45" s="21"/>
+      <c r="C45" s="9"/>
+      <c r="D45" t="s">
         <v>515</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>516</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" s="21"/>
+      <c r="C46" s="9"/>
+      <c r="D46" t="s">
         <v>509</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>510</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" s="21"/>
+      <c r="C47" s="9"/>
+      <c r="D47" t="s">
         <v>512</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>513</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" s="21"/>
+      <c r="C48" s="9"/>
+      <c r="D48" t="s">
         <v>265</v>
-      </c>
-      <c r="D48" t="s">
-        <v>266</v>
       </c>
       <c r="E48" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F48" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" s="21"/>
+      <c r="C49" s="9"/>
+      <c r="D49" t="s">
         <v>242</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>243</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B50" s="21"/>
+      <c r="C50" s="9"/>
+      <c r="D50" t="s">
         <v>233</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>234</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B51" s="21"/>
+      <c r="C51" s="9"/>
+      <c r="D51" t="s">
         <v>245</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>246</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B52" s="21"/>
+      <c r="C52" s="9"/>
+      <c r="D52" t="s">
         <v>529</v>
-      </c>
-      <c r="D52" t="s">
-        <v>530</v>
       </c>
       <c r="E52" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F52" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B53" s="21"/>
+      <c r="C53" s="9"/>
+      <c r="D53" t="s">
         <v>527</v>
-      </c>
-      <c r="D53" t="s">
-        <v>528</v>
       </c>
       <c r="E53" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F53" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" s="21"/>
+      <c r="C54" s="9"/>
+      <c r="D54" t="s">
         <v>534</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>535</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" s="21"/>
+      <c r="C55" s="9"/>
+      <c r="D55" t="s">
         <v>254</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>255</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B56" s="21"/>
+      <c r="C56" s="9"/>
+      <c r="D56" t="s">
         <v>251</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>252</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B57" s="21"/>
+      <c r="C57" s="9"/>
+      <c r="D57" t="s">
         <v>531</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>532</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B58" s="21"/>
+      <c r="C58" s="9"/>
+      <c r="D58" t="s">
         <v>521</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>523</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" s="21"/>
+      <c r="C59" s="9"/>
+      <c r="D59" t="s">
         <v>522</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>525</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B60" s="21"/>
+      <c r="C60" s="9"/>
+      <c r="D60" t="s">
         <v>278</v>
-      </c>
-      <c r="D60" t="s">
-        <v>279</v>
       </c>
       <c r="E60" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F60" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" s="21"/>
+      <c r="C61" s="9"/>
+      <c r="D61" t="s">
         <v>280</v>
-      </c>
-      <c r="D61" t="s">
-        <v>281</v>
       </c>
       <c r="E61" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F61" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B62" s="21"/>
+      <c r="C62" s="9"/>
+      <c r="D62" t="s">
         <v>230</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>231</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B63" s="21"/>
+      <c r="C63" s="9"/>
+      <c r="D63" t="s">
         <v>269</v>
-      </c>
-      <c r="D63" t="s">
-        <v>261</v>
       </c>
       <c r="E63" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F63" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" s="21"/>
+      <c r="C64" s="9"/>
+      <c r="D64" t="s">
         <v>267</v>
-      </c>
-      <c r="D64" t="s">
-        <v>268</v>
       </c>
       <c r="E64" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F64" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" s="22"/>
+      <c r="C65" s="10"/>
+      <c r="D65" t="s">
         <v>413</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>414</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B66" s="22"/>
+      <c r="C66" s="10"/>
+      <c r="D66" t="s">
         <v>410</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>411</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" s="22"/>
+      <c r="C67" s="10"/>
+      <c r="D67" t="s">
         <v>549</v>
-      </c>
-      <c r="D67" t="s">
-        <v>551</v>
       </c>
       <c r="E67" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F67" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B68" s="22"/>
+      <c r="C68" s="10"/>
+      <c r="D68" t="s">
         <v>548</v>
-      </c>
-      <c r="D68" t="s">
-        <v>550</v>
       </c>
       <c r="E68" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F68" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" s="22"/>
+      <c r="C69" s="10"/>
+      <c r="D69" t="s">
         <v>416</v>
-      </c>
-      <c r="D69" t="s">
-        <v>417</v>
       </c>
       <c r="E69" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F69" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B70" s="22"/>
+      <c r="C70" s="10"/>
+      <c r="D70" t="s">
         <v>418</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>419</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B71" s="23"/>
+      <c r="C71" s="11"/>
+      <c r="D71" t="s">
         <v>362</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>206</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B72" s="23"/>
+      <c r="C72" s="11"/>
+      <c r="D72" t="s">
         <v>366</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>367</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B73" s="23"/>
+      <c r="C73" s="11"/>
+      <c r="D73" t="s">
         <v>363</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>364</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B74" s="23"/>
+      <c r="C74" s="11"/>
+      <c r="D74" t="s">
         <v>359</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>360</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B75" s="23"/>
+      <c r="C75" s="11"/>
+      <c r="D75" t="s">
         <v>369</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>547</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B76" s="23"/>
+      <c r="C76" s="11"/>
+      <c r="D76" t="s">
         <v>356</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>357</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B77" s="24"/>
+      <c r="C77" s="12"/>
+      <c r="D77" t="s">
         <v>459</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>460</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B78" s="24"/>
+      <c r="C78" s="12"/>
+      <c r="D78" t="s">
         <v>447</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>448</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B79" s="24"/>
+      <c r="C79" s="12"/>
+      <c r="D79" t="s">
         <v>462</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>463</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B80" s="24"/>
+      <c r="C80" s="12"/>
+      <c r="D80" t="s">
         <v>444</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>445</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B81" s="24"/>
+      <c r="C81" s="12"/>
+      <c r="D81" t="s">
         <v>441</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>442</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B82" s="24"/>
+      <c r="C82" s="12"/>
+      <c r="D82" t="s">
         <v>471</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>472</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B83" s="24"/>
+      <c r="C83" s="12"/>
+      <c r="D83" t="s">
         <v>453</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>454</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B84" s="24"/>
+      <c r="C84" s="12"/>
+      <c r="D84" t="s">
         <v>465</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>466</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B85" s="24"/>
+      <c r="C85" s="12"/>
+      <c r="D85" t="s">
         <v>456</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>457</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B86" s="24"/>
+      <c r="C86" s="12"/>
+      <c r="D86" t="s">
         <v>468</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>469</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B87" s="24"/>
+      <c r="C87" s="12"/>
+      <c r="D87" t="s">
         <v>450</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>451</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B88" s="25"/>
+      <c r="C88" s="5"/>
+      <c r="D88" t="s">
         <v>406</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>407</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B89" s="25"/>
+      <c r="C89" s="5"/>
+      <c r="D89" t="s">
         <v>403</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>404</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B90" s="26"/>
+      <c r="C90" s="13"/>
+      <c r="D90" t="s">
         <v>422</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>427</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B91" s="26"/>
+      <c r="C91" s="13"/>
+      <c r="D91" t="s">
         <v>424</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>425</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B92" s="27"/>
+      <c r="C92" s="14"/>
+      <c r="D92" t="s">
         <v>195</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>196</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B93" s="27"/>
+      <c r="C93" s="14"/>
+      <c r="D93" t="s">
         <v>198</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>199</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B94" s="27"/>
+      <c r="C94" s="14"/>
+      <c r="D94" t="s">
         <v>221</v>
-      </c>
-      <c r="D94" t="s">
-        <v>222</v>
       </c>
       <c r="E94" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F94" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B95" s="27"/>
+      <c r="C95" s="14"/>
+      <c r="D95" t="s">
         <v>49</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>50</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B96" s="27"/>
+      <c r="C96" s="14"/>
+      <c r="D96" t="s">
         <v>46</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>47</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B97" s="27"/>
+      <c r="C97" s="14"/>
+      <c r="D97" t="s">
         <v>52</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>53</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B98" s="27"/>
+      <c r="C98" s="14"/>
+      <c r="D98" t="s">
         <v>55</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>56</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B99" s="27"/>
+      <c r="C99" s="14"/>
+      <c r="D99" t="s">
         <v>177</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>178</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B100" s="27"/>
+      <c r="C100" s="14"/>
+      <c r="D100" t="s">
         <v>62</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>59</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B101" s="27"/>
+      <c r="C101" s="14"/>
+      <c r="D101" t="s">
         <v>63</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>59</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B102" s="27"/>
+      <c r="C102" s="14"/>
+      <c r="D102" t="s">
         <v>504</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>505</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B103" s="27"/>
+      <c r="C103" s="14"/>
+      <c r="D103" t="s">
         <v>501</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>502</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B104" s="27"/>
+      <c r="C104" s="14"/>
+      <c r="D104" t="s">
         <v>146</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>147</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B105" s="27"/>
+      <c r="C105" s="14"/>
+      <c r="D105" t="s">
         <v>132</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>554</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B106" s="27"/>
+      <c r="C106" s="14"/>
+      <c r="D106" t="s">
         <v>192</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>193</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B107" s="27"/>
+      <c r="C107" s="14"/>
+      <c r="D107" t="s">
         <v>168</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>169</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B108" s="27"/>
+      <c r="C108" s="14"/>
+      <c r="D108" t="s">
         <v>171</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>172</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B109" s="27"/>
+      <c r="C109" s="14"/>
+      <c r="D109" t="s">
         <v>205</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>206</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B110" s="27"/>
+      <c r="C110" s="14"/>
+      <c r="D110" t="s">
         <v>218</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>219</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B111" s="27"/>
+      <c r="C111" s="14"/>
+      <c r="D111" t="s">
         <v>208</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>507</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B112" s="27"/>
+      <c r="C112" s="14"/>
+      <c r="D112" t="s">
         <v>210</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>508</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B113" s="27"/>
+      <c r="C113" s="14"/>
+      <c r="D113" t="s">
         <v>158</v>
-      </c>
-      <c r="D113" t="s">
-        <v>159</v>
       </c>
       <c r="E113" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F113" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B114" s="27"/>
+      <c r="C114" s="14"/>
+      <c r="D114" t="s">
         <v>120</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>121</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B115" s="27"/>
+      <c r="C115" s="14"/>
+      <c r="D115" t="s">
         <v>114</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>115</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B116" s="27"/>
+      <c r="C116" s="14"/>
+      <c r="D116" t="s">
         <v>22</v>
-      </c>
-      <c r="D116" t="s">
-        <v>493</v>
       </c>
       <c r="E116" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F116" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B117" s="27"/>
+      <c r="C117" s="14"/>
+      <c r="D117" t="s">
         <v>126</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>127</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B118" s="27"/>
+      <c r="C118" s="14"/>
+      <c r="D118" t="s">
         <v>64</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>65</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B119" s="27"/>
+      <c r="C119" s="14"/>
+      <c r="D119" t="s">
         <v>67</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>68</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B120" s="27"/>
+      <c r="C120" s="14"/>
+      <c r="D120" t="s">
         <v>226</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>227</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B121" s="27"/>
+      <c r="C121" s="14"/>
+      <c r="D121" t="s">
         <v>129</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>130</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B122" s="27"/>
+      <c r="C122" s="14"/>
+      <c r="D122" t="s">
         <v>190</v>
-      </c>
-      <c r="D122" t="s">
-        <v>191</v>
       </c>
       <c r="E122" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F122" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B123" s="27"/>
+      <c r="C123" s="14"/>
+      <c r="D123" t="s">
         <v>61</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>59</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B124" s="27"/>
+      <c r="C124" s="14"/>
+      <c r="D124" t="s">
         <v>160</v>
-      </c>
-      <c r="D124" t="s">
-        <v>161</v>
       </c>
       <c r="E124" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F124" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B125" s="27"/>
+      <c r="C125" s="14"/>
+      <c r="D125" t="s">
         <v>203</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>204</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B126" s="27"/>
+      <c r="C126" s="14"/>
+      <c r="D126" t="s">
         <v>201</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>202</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B127" s="27"/>
+      <c r="C127" s="14"/>
+      <c r="D127" t="s">
         <v>23</v>
-      </c>
-      <c r="D127" t="s">
-        <v>24</v>
       </c>
       <c r="E127" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F127" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B128" s="27"/>
+      <c r="C128" s="14"/>
+      <c r="D128" t="s">
         <v>498</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>499</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B129" s="27"/>
+      <c r="C129" s="14"/>
+      <c r="D129" t="s">
         <v>495</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>496</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B130" s="27"/>
+      <c r="C130" s="14"/>
+      <c r="D130" t="s">
         <v>162</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>163</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="B131" s="27"/>
+      <c r="C131" s="14"/>
+      <c r="D131" t="s">
         <v>165</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>166</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="B132" s="27"/>
+      <c r="C132" s="14"/>
+      <c r="D132" t="s">
         <v>34</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>35</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="B133" s="27"/>
+      <c r="C133" s="14"/>
+      <c r="D133" t="s">
         <v>31</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>32</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="B134" s="27"/>
+      <c r="C134" s="14"/>
+      <c r="D134" t="s">
         <v>137</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>138</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="B135" s="27"/>
+      <c r="C135" s="14"/>
+      <c r="D135" t="s">
         <v>154</v>
-      </c>
-      <c r="D135" t="s">
-        <v>155</v>
       </c>
       <c r="E135" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F135" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B136" s="27"/>
+      <c r="C136" s="14"/>
+      <c r="D136" t="s">
         <v>156</v>
-      </c>
-      <c r="D136" t="s">
-        <v>157</v>
       </c>
       <c r="E136" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F136" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="B137" s="27"/>
+      <c r="C137" s="14"/>
+      <c r="D137" t="s">
         <v>37</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>38</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="B138" s="27"/>
+      <c r="C138" s="14"/>
+      <c r="D138" t="s">
         <v>58</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>59</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="B139" s="27"/>
+      <c r="C139" s="14"/>
+      <c r="D139" t="s">
         <v>140</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>141</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B140" s="27"/>
+      <c r="C140" s="14"/>
+      <c r="D140" t="s">
         <v>150</v>
-      </c>
-      <c r="D140" t="s">
-        <v>151</v>
       </c>
       <c r="E140" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F140" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="B141" s="27"/>
+      <c r="C141" s="14"/>
+      <c r="D141" t="s">
         <v>152</v>
-      </c>
-      <c r="D141" t="s">
-        <v>153</v>
       </c>
       <c r="E141" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F141" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B142" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="B142" s="27"/>
+      <c r="C142" s="14"/>
+      <c r="D142" t="s">
         <v>180</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>553</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B143" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="B143" s="27"/>
+      <c r="C143" s="14"/>
+      <c r="D143" t="s">
         <v>182</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>183</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="B144" s="27"/>
+      <c r="C144" s="14"/>
+      <c r="D144" t="s">
         <v>174</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>175</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="B145" s="27"/>
+      <c r="C145" s="14"/>
+      <c r="D145" t="s">
         <v>223</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
         <v>224</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B146" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="B146" s="27"/>
+      <c r="C146" s="14"/>
+      <c r="D146" t="s">
         <v>215</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>216</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="B147" s="27"/>
+      <c r="C147" s="14"/>
+      <c r="D147" t="s">
         <v>76</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>77</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C148" t="s">
+      <c r="B148" s="27"/>
+      <c r="C148" s="14"/>
+      <c r="D148" t="s">
         <v>79</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
         <v>80</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C149" t="s">
+      <c r="B149" s="27"/>
+      <c r="C149" s="14"/>
+      <c r="D149" t="s">
         <v>70</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>71</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B150" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="B150" s="27"/>
+      <c r="C150" s="14"/>
+      <c r="D150" t="s">
         <v>73</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
         <v>74</v>
       </c>
-      <c r="E150" t="s">
+      <c r="F150" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B151" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C151" t="s">
+      <c r="B151" s="27"/>
+      <c r="C151" s="14"/>
+      <c r="D151" t="s">
         <v>85</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>86</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B152" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="B152" s="27"/>
+      <c r="C152" s="14"/>
+      <c r="D152" t="s">
         <v>82</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>83</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="B153" s="27"/>
+      <c r="C153" s="14"/>
+      <c r="D153" t="s">
         <v>94</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
         <v>95</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="B154" s="27"/>
+      <c r="C154" s="14"/>
+      <c r="D154" t="s">
         <v>91</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>92</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="B155" s="27"/>
+      <c r="C155" s="14"/>
+      <c r="D155" t="s">
         <v>88</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>89</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B156" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C156" t="s">
+      <c r="B156" s="27"/>
+      <c r="C156" s="14"/>
+      <c r="D156" t="s">
         <v>97</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>98</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B157" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C157" t="s">
+      <c r="B157" s="27"/>
+      <c r="C157" s="14"/>
+      <c r="D157" t="s">
         <v>100</v>
       </c>
-      <c r="D157" t="s">
+      <c r="E157" t="s">
         <v>101</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B158" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="B158" s="27"/>
+      <c r="C158" s="14"/>
+      <c r="D158" t="s">
         <v>40</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>41</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B159" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="B159" s="27"/>
+      <c r="C159" s="14"/>
+      <c r="D159" t="s">
         <v>43</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
         <v>44</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F159" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B160" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="B160" s="27"/>
+      <c r="C160" s="14"/>
+      <c r="D160" t="s">
         <v>111</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
         <v>112</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B161" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="B161" s="27"/>
+      <c r="C161" s="14"/>
+      <c r="D161" t="s">
         <v>185</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>186</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C162" t="s">
+      <c r="B162" s="27"/>
+      <c r="C162" s="14"/>
+      <c r="D162" t="s">
         <v>134</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
         <v>135</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B163" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="B163" s="27"/>
+      <c r="C163" s="14"/>
+      <c r="D163" t="s">
         <v>103</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>104</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B164" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="B164" s="27"/>
+      <c r="C164" s="14"/>
+      <c r="D164" t="s">
         <v>106</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
         <v>107</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B165" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C165" t="s">
+      <c r="B165" s="27"/>
+      <c r="C165" s="14"/>
+      <c r="D165" t="s">
         <v>109</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>555</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B166" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C166" t="s">
+      <c r="B166" s="27"/>
+      <c r="C166" s="14"/>
+      <c r="D166" t="s">
         <v>143</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>144</v>
       </c>
-      <c r="E166" t="s">
+      <c r="F166" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B167" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="B167" s="27"/>
+      <c r="C167" s="14"/>
+      <c r="D167" t="s">
         <v>149</v>
-      </c>
-      <c r="D167" t="s">
-        <v>494</v>
       </c>
       <c r="E167" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F167" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B168" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C168" t="s">
+      <c r="B168" s="27"/>
+      <c r="C168" s="14"/>
+      <c r="D168" t="s">
         <v>25</v>
       </c>
-      <c r="D168" t="s">
+      <c r="E168" t="s">
         <v>26</v>
       </c>
-      <c r="E168" t="s">
+      <c r="F168" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B169" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C169" t="s">
+      <c r="B169" s="27"/>
+      <c r="C169" s="14"/>
+      <c r="D169" t="s">
         <v>28</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>29</v>
       </c>
-      <c r="E169" t="s">
+      <c r="F169" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B170" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C170" t="s">
+      <c r="B170" s="27"/>
+      <c r="C170" s="14"/>
+      <c r="D170" t="s">
         <v>188</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
         <v>552</v>
       </c>
-      <c r="E170" t="s">
+      <c r="F170" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A171" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B171" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C171" t="s">
+      <c r="B171" s="27"/>
+      <c r="C171" s="14"/>
+      <c r="D171" t="s">
         <v>123</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>124</v>
       </c>
-      <c r="E171" t="s">
+      <c r="F171" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A172" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B172" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C172" t="s">
+      <c r="B172" s="27"/>
+      <c r="C172" s="14"/>
+      <c r="D172" t="s">
         <v>117</v>
       </c>
-      <c r="D172" t="s">
+      <c r="E172" t="s">
         <v>118</v>
       </c>
-      <c r="E172" t="s">
+      <c r="F172" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A173" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B173" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C173" t="s">
+      <c r="B173" s="27"/>
+      <c r="C173" s="14"/>
+      <c r="D173" t="s">
         <v>212</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>213</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F173" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A174" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B174" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="C174" t="s">
+      <c r="B174" s="28"/>
+      <c r="C174" s="15"/>
+      <c r="D174" t="s">
         <v>432</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
         <v>305</v>
       </c>
-      <c r="E174" t="s">
+      <c r="F174" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A175" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B175" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="C175" t="s">
+      <c r="B175" s="28"/>
+      <c r="C175" s="15"/>
+      <c r="D175" t="s">
         <v>429</v>
       </c>
-      <c r="D175" t="s">
+      <c r="E175" t="s">
         <v>430</v>
       </c>
-      <c r="E175" t="s">
+      <c r="F175" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A176" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B176" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="C176" t="s">
+      <c r="B176" s="28"/>
+      <c r="C176" s="15"/>
+      <c r="D176" t="s">
         <v>436</v>
       </c>
-      <c r="D176" t="s">
+      <c r="E176" t="s">
         <v>437</v>
       </c>
-      <c r="E176" t="s">
+      <c r="F176" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A177" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B177" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="C177" t="s">
+      <c r="B177" s="28"/>
+      <c r="C177" s="15"/>
+      <c r="D177" t="s">
         <v>433</v>
       </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>434</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A178" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B178" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="B178" s="29"/>
+      <c r="C178" s="11"/>
+      <c r="D178" t="s">
         <v>294</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>295</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F178" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A179" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B179" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C179" t="s">
+      <c r="B179" s="29"/>
+      <c r="C179" s="11"/>
+      <c r="D179" t="s">
         <v>353</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E179" t="s">
         <v>258</v>
       </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A180" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B180" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C180" t="s">
+      <c r="B180" s="29"/>
+      <c r="C180" s="11"/>
+      <c r="D180" t="s">
         <v>297</v>
-      </c>
-      <c r="D180" t="s">
-        <v>5</v>
       </c>
       <c r="E180" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A181" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B181" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C181" t="s">
+      <c r="B181" s="29"/>
+      <c r="C181" s="11"/>
+      <c r="D181" t="s">
         <v>300</v>
-      </c>
-      <c r="D181" t="s">
-        <v>301</v>
       </c>
       <c r="E181" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F181" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A182" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B182" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C182" t="s">
+      <c r="B182" s="29"/>
+      <c r="C182" s="11"/>
+      <c r="D182" t="s">
         <v>291</v>
-      </c>
-      <c r="D182" t="s">
-        <v>24</v>
       </c>
       <c r="E182" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F182" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A183" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B183" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C183" t="s">
+      <c r="B183" s="29"/>
+      <c r="C183" s="11"/>
+      <c r="D183" t="s">
         <v>304</v>
       </c>
-      <c r="D183" t="s">
+      <c r="E183" t="s">
         <v>305</v>
       </c>
-      <c r="E183" t="s">
+      <c r="F183" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A184" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B184" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C184" t="s">
+      <c r="B184" s="29"/>
+      <c r="C184" s="11"/>
+      <c r="D184" t="s">
         <v>354</v>
       </c>
-      <c r="D184" t="s">
+      <c r="E184" t="s">
         <v>258</v>
       </c>
-      <c r="E184" t="s">
+      <c r="F184" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A185" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B185" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C185" t="s">
+      <c r="B185" s="29"/>
+      <c r="C185" s="11"/>
+      <c r="D185" t="s">
         <v>336</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>337</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A186" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B186" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C186" t="s">
+      <c r="B186" s="29"/>
+      <c r="C186" s="11"/>
+      <c r="D186" t="s">
         <v>341</v>
       </c>
-      <c r="D186" t="s">
+      <c r="E186" t="s">
         <v>342</v>
       </c>
-      <c r="E186" t="s">
+      <c r="F186" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B187" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C187" t="s">
+      <c r="B187" s="29"/>
+      <c r="C187" s="11"/>
+      <c r="D187" t="s">
         <v>323</v>
-      </c>
-      <c r="D187" t="s">
-        <v>324</v>
       </c>
       <c r="E187" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F187" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A188" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B188" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C188" t="s">
+      <c r="B188" s="29"/>
+      <c r="C188" s="11"/>
+      <c r="D188" t="s">
         <v>311</v>
-      </c>
-      <c r="D188" t="s">
-        <v>312</v>
       </c>
       <c r="E188" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F188" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A189" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B189" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C189" t="s">
+      <c r="B189" s="29"/>
+      <c r="C189" s="11"/>
+      <c r="D189" t="s">
         <v>345</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
         <v>346</v>
       </c>
-      <c r="E189" t="s">
+      <c r="F189" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A190" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B190" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C190" t="s">
+      <c r="B190" s="29"/>
+      <c r="C190" s="11"/>
+      <c r="D190" t="s">
         <v>331</v>
       </c>
-      <c r="D190" t="s">
+      <c r="E190" t="s">
         <v>332</v>
       </c>
-      <c r="E190" t="s">
+      <c r="F190" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A191" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B191" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C191" t="s">
+      <c r="B191" s="29"/>
+      <c r="C191" s="11"/>
+      <c r="D191" t="s">
         <v>307</v>
-      </c>
-      <c r="D191" t="s">
-        <v>308</v>
       </c>
       <c r="E191" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F191" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A192" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B192" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C192" t="s">
+      <c r="B192" s="29"/>
+      <c r="C192" s="11"/>
+      <c r="D192" t="s">
         <v>319</v>
-      </c>
-      <c r="D192" t="s">
-        <v>320</v>
       </c>
       <c r="E192" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F192" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A193" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B193" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C193" t="s">
+      <c r="B193" s="29"/>
+      <c r="C193" s="11"/>
+      <c r="D193" t="s">
         <v>315</v>
-      </c>
-      <c r="D193" t="s">
-        <v>316</v>
       </c>
       <c r="E193" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F193" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A194" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B194" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C194" t="s">
+      <c r="B194" s="29"/>
+      <c r="C194" s="11"/>
+      <c r="D194" t="s">
         <v>327</v>
-      </c>
-      <c r="D194" t="s">
-        <v>328</v>
       </c>
       <c r="E194" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F194" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A195" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B195" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C195" t="s">
+      <c r="B195" s="29"/>
+      <c r="C195" s="11"/>
+      <c r="D195" t="s">
         <v>350</v>
       </c>
-      <c r="D195" t="s">
+      <c r="E195" t="s">
         <v>351</v>
       </c>
-      <c r="E195" t="s">
+      <c r="F195" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A196" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B196" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C196" t="s">
+      <c r="B196" s="29"/>
+      <c r="C196" s="11"/>
+      <c r="D196" t="s">
         <v>339</v>
-      </c>
-      <c r="D196" t="s">
-        <v>340</v>
       </c>
       <c r="E196" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F196" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A197" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B197" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C197" t="s">
+      <c r="B197" s="29"/>
+      <c r="C197" s="11"/>
+      <c r="D197" t="s">
         <v>343</v>
-      </c>
-      <c r="D197" t="s">
-        <v>344</v>
       </c>
       <c r="E197" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F197" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A198" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B198" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C198" t="s">
+      <c r="B198" s="29"/>
+      <c r="C198" s="11"/>
+      <c r="D198" t="s">
         <v>298</v>
-      </c>
-      <c r="D198" t="s">
-        <v>299</v>
       </c>
       <c r="E198" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F198" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A199" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B199" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C199" t="s">
+      <c r="B199" s="29"/>
+      <c r="C199" s="11"/>
+      <c r="D199" t="s">
         <v>325</v>
-      </c>
-      <c r="D199" t="s">
-        <v>326</v>
       </c>
       <c r="E199" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F199" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A200" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B200" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C200" t="s">
+      <c r="B200" s="29"/>
+      <c r="C200" s="11"/>
+      <c r="D200" t="s">
         <v>313</v>
-      </c>
-      <c r="D200" t="s">
-        <v>314</v>
       </c>
       <c r="E200" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F200" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A201" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B201" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C201" t="s">
+      <c r="B201" s="29"/>
+      <c r="C201" s="11"/>
+      <c r="D201" t="s">
         <v>334</v>
-      </c>
-      <c r="D201" t="s">
-        <v>335</v>
       </c>
       <c r="E201" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F201" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A202" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B202" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C202" t="s">
+      <c r="B202" s="29"/>
+      <c r="C202" s="11"/>
+      <c r="D202" t="s">
         <v>302</v>
-      </c>
-      <c r="D202" t="s">
-        <v>303</v>
       </c>
       <c r="E202" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F202" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A203" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B203" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C203" t="s">
+      <c r="B203" s="29"/>
+      <c r="C203" s="11"/>
+      <c r="D203" t="s">
         <v>309</v>
-      </c>
-      <c r="D203" t="s">
-        <v>310</v>
       </c>
       <c r="E203" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F203" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A204" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B204" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C204" t="s">
+      <c r="B204" s="29"/>
+      <c r="C204" s="11"/>
+      <c r="D204" t="s">
         <v>321</v>
-      </c>
-      <c r="D204" t="s">
-        <v>322</v>
       </c>
       <c r="E204" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F204" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A205" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B205" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C205" t="s">
+      <c r="B205" s="29"/>
+      <c r="C205" s="11"/>
+      <c r="D205" t="s">
         <v>317</v>
-      </c>
-      <c r="D205" t="s">
-        <v>318</v>
       </c>
       <c r="E205" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F205" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A206" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B206" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C206" t="s">
+      <c r="B206" s="29"/>
+      <c r="C206" s="11"/>
+      <c r="D206" t="s">
         <v>292</v>
-      </c>
-      <c r="D206" t="s">
-        <v>293</v>
       </c>
       <c r="E206" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F206" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A207" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B207" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C207" t="s">
+      <c r="B207" s="29"/>
+      <c r="C207" s="11"/>
+      <c r="D207" t="s">
         <v>348</v>
-      </c>
-      <c r="D207" t="s">
-        <v>349</v>
       </c>
       <c r="E207" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F207" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A208" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B208" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C208" t="s">
+      <c r="B208" s="29"/>
+      <c r="C208" s="11"/>
+      <c r="D208" t="s">
         <v>329</v>
-      </c>
-      <c r="D208" t="s">
-        <v>330</v>
       </c>
       <c r="E208" t="s">
         <v>330</v>
       </c>
+      <c r="F208" t="s">
+        <v>330</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{8C5FC34B-7ECA-46B5-BE95-29A86B0D6D22}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E208">
+  <autoFilter ref="A1:F1" xr:uid="{8C5FC34B-7ECA-46B5-BE95-29A86B0D6D22}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F208">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E208">
-    <sortCondition ref="C3:C208"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F208">
+    <sortCondition ref="D3:D208"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
